--- a/Results/combinatorial_biochemical_markers_highest_corrs.xlsx
+++ b/Results/combinatorial_biochemical_markers_highest_corrs.xlsx
@@ -37,73 +37,73 @@
     <t>MID</t>
   </si>
   <si>
-    <t>Urea/Phosphate/MCFA</t>
+    <t>TAG*Phosphate/Urea/Uric acid</t>
+  </si>
+  <si>
+    <t>Urea*Glucose/Uric acid/MCFA</t>
+  </si>
+  <si>
+    <t>TAG*Chloride/Urea/Bilirubin</t>
   </si>
   <si>
     <t>Glucose/Cholesterol/MCFA</t>
   </si>
   <si>
-    <t>Urea*Chloride/Phosphate/MCFA</t>
-  </si>
-  <si>
-    <t>Lactate*Bilirubin/Phosphate/MCFA</t>
-  </si>
-  <si>
-    <t>Chloride*Glucose/Cholesterol/MCFA</t>
-  </si>
-  <si>
-    <t>Creatinine*Glucose/Phosphate/MCFA</t>
-  </si>
-  <si>
-    <t>Creatinine/Cholesterol/MCFA</t>
-  </si>
-  <si>
-    <t>Glucose*Uric acid/Lactate/MCFA</t>
-  </si>
-  <si>
-    <t>Uric acid*MCFA/Urea/Phosphate</t>
+    <t>Chloride*Glucose/Creatinine/MCFA</t>
+  </si>
+  <si>
+    <t>Phosphate/Creatinine/Chloride</t>
+  </si>
+  <si>
+    <t>TAG/Glucose/MCFA</t>
+  </si>
+  <si>
+    <t>Cholesterol*MCFA/Chloride/Glucose</t>
+  </si>
+  <si>
+    <t>Creatinekinase</t>
+  </si>
+  <si>
+    <t>Creatinekinase / Albumin</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>Myoglobin / Albumin</t>
   </si>
   <si>
     <t>Creatinekinase / AST</t>
   </si>
   <si>
-    <t>Creatinekinase</t>
-  </si>
-  <si>
-    <t>Creatinekinase / Albumin</t>
+    <t>a*b/c/d</t>
   </si>
   <si>
     <t>a/b/c</t>
   </si>
   <si>
-    <t>a*b/c/d</t>
-  </si>
-  <si>
-    <t>2, 5, 10</t>
+    <t>4, 5, 2, 9</t>
+  </si>
+  <si>
+    <t>2, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>4, 6, 2, 7</t>
   </si>
   <si>
     <t>8, 1, 10</t>
   </si>
   <si>
-    <t>2, 6, 5, 10</t>
-  </si>
-  <si>
-    <t>3, 7, 5, 10</t>
-  </si>
-  <si>
-    <t>6, 8, 1, 10</t>
-  </si>
-  <si>
-    <t>0, 8, 5, 10</t>
-  </si>
-  <si>
-    <t>0, 1, 10</t>
-  </si>
-  <si>
-    <t>8, 9, 3, 10</t>
-  </si>
-  <si>
-    <t>9, 10, 2, 5</t>
+    <t>6, 8, 0, 10</t>
+  </si>
+  <si>
+    <t>5, 0, 6</t>
+  </si>
+  <si>
+    <t>4, 8, 10</t>
+  </si>
+  <si>
+    <t>1, 10, 6, 8</t>
   </si>
 </sst>
 </file>
@@ -498,22 +498,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>0.9453455689307927</v>
+        <v>0.9916750206504259</v>
       </c>
       <c r="E2">
-        <v>0.7752477545133923</v>
+        <v>0.2819987004913559</v>
       </c>
       <c r="F2">
-        <v>0.5940071175390224</v>
+        <v>0.8529698360077634</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -521,22 +521,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.938393514912195</v>
+        <v>0.9912158733459889</v>
       </c>
       <c r="E3">
-        <v>0.7737125760111763</v>
+        <v>0.2753302844156501</v>
       </c>
       <c r="F3">
-        <v>0.8825594421964907</v>
+        <v>0.7502984684805267</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -547,19 +547,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>0.9345579001297631</v>
+        <v>0.9907920853424946</v>
       </c>
       <c r="E4">
-        <v>0.7490221185241087</v>
+        <v>0.8506398055687696</v>
       </c>
       <c r="F4">
-        <v>0.5986899593323733</v>
+        <v>0.8472225329340752</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -573,25 +573,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.9235746967847454</v>
+        <v>0.9886611901749742</v>
       </c>
       <c r="E5">
-        <v>0.3675996528436983</v>
+        <v>0.4144014801874926</v>
       </c>
       <c r="F5">
-        <v>3.416179394293852</v>
+        <v>1.125844286643523</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -599,25 +599,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0.9233752874326807</v>
+        <v>0.9884648231926986</v>
       </c>
       <c r="E6">
-        <v>0.7599863361253043</v>
+        <v>0.01232496422935569</v>
       </c>
       <c r="F6">
-        <v>0.9370970638397811</v>
+        <v>0.02276779910067977</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -625,25 +625,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0.922830319165665</v>
+        <v>0.9875540307905686</v>
       </c>
       <c r="E7">
-        <v>0.7768009505729931</v>
+        <v>0.7773161720048575</v>
       </c>
       <c r="F7">
-        <v>0.4716834584401484</v>
+        <v>0.5420582704437755</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -651,25 +651,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.9176237056787627</v>
+        <v>0.9875190510455318</v>
       </c>
       <c r="E8">
-        <v>0.3546935302398913</v>
+        <v>0.4720309394387006</v>
       </c>
       <c r="F8">
-        <v>3.083839805322687</v>
+        <v>0.25607803094965</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -677,22 +677,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>0.9158554870380665</v>
+        <v>0.9868798284140713</v>
       </c>
       <c r="E9">
-        <v>0.8035088072370483</v>
+        <v>0.3882538996094143</v>
       </c>
       <c r="F9">
-        <v>0.6713902672161036</v>
+        <v>0.8837297295972822</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -703,22 +703,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.9150615127666217</v>
+        <v>0.9868305914816571</v>
       </c>
       <c r="E10">
-        <v>0.5877608115077371</v>
+        <v>0.1698566922509811</v>
       </c>
       <c r="F10">
-        <v>0.4691222490082042</v>
+        <v>0.3670424653207676</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -729,19 +729,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.9143309544583024</v>
+        <v>0.9863336790513642</v>
       </c>
       <c r="E11">
-        <v>0.530794101512893</v>
+        <v>0.4806219979833545</v>
       </c>
       <c r="F11">
-        <v>2.659061784244072</v>
+        <v>0.3662162824456891</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
